--- a/data/trans_orig/P38B-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P38B-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF846996-E4B8-4E7D-B43B-DFE69ACF65E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{310AACCD-F754-4550-BC93-846DADEB5B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CEDA3641-C737-492D-A6B1-D22E06D4E295}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1327D966-60DC-4ECE-9130-55E6576A3F71}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="324">
   <si>
     <t>Población según si le han medido los niveles de colesterol por prescripción médica en 2012 (Tasa respuesta: 99,39%)</t>
   </si>
@@ -76,958 +76,940 @@
     <t>83,31%</t>
   </si>
   <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
   </si>
   <si>
     <t>90,55%</t>
   </si>
   <si>
-    <t>83,74%</t>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si le han medido los niveles de colesterol por prescripción médica en 2015 (Tasa respuesta: 99,45%)</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>Población según si le han medido los niveles de colesterol por prescripción médica en 2023 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
   </si>
   <si>
     <t>95,18%</t>
   </si>
   <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
   </si>
   <si>
     <t>4,82%</t>
   </si>
   <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>82,94%</t>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
   </si>
   <si>
     <t>80,11%</t>
   </si>
   <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
   </si>
   <si>
     <t>19,89%</t>
   </si>
   <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si le han medido los niveles de colesterol por prescripción médica en 2015 (Tasa respuesta: 99,45%)</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>Población según si le han medido los niveles de colesterol por prescripción médica en 2023 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
+    <t>23,15%</t>
   </si>
   <si>
     <t>14,79%</t>
   </si>
   <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
   </si>
   <si>
     <t>17,12%</t>
   </si>
   <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
+    <t>15,09%</t>
   </si>
   <si>
     <t>79,37%</t>
   </si>
   <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
+    <t>75,18%</t>
   </si>
   <si>
     <t>86,71%</t>
   </si>
   <si>
-    <t>88,22%</t>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
   </si>
   <si>
     <t>83,25%</t>
   </si>
   <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
   </si>
   <si>
     <t>20,63%</t>
   </si>
   <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
+    <t>24,82%</t>
   </si>
   <si>
     <t>13,29%</t>
   </si>
   <si>
-    <t>11,78%</t>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
   </si>
   <si>
     <t>16,75%</t>
   </si>
   <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
   </si>
 </sst>
 </file>
@@ -1439,7 +1421,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{554A4CF9-E0D0-410D-B9C6-58A1895249E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{816B288D-2590-4B46-9544-736F4EA435D0}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2025,7 +2007,7 @@
         <v>561</v>
       </c>
       <c r="D13" s="7">
-        <v>622908</v>
+        <v>622907</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2127,7 +2109,7 @@
         <v>681</v>
       </c>
       <c r="D15" s="7">
-        <v>748708</v>
+        <v>748707</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2401,7 +2383,7 @@
         <v>408</v>
       </c>
       <c r="I20" s="7">
-        <v>432186</v>
+        <v>432185</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>119</v>
@@ -2452,7 +2434,7 @@
         <v>3280</v>
       </c>
       <c r="I21" s="7">
-        <v>3538464</v>
+        <v>3538463</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2502,7 +2484,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8B9E13-39FB-4011-8468-9D6A9AEEEE32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4986D15-4C05-46D5-91EB-3624CD15C004}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2969,10 +2951,10 @@
         <v>169</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2987,13 +2969,13 @@
         <v>180969</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H11" s="7">
         <v>98</v>
@@ -3002,13 +2984,13 @@
         <v>96060</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M11" s="7">
         <v>265</v>
@@ -3017,13 +2999,13 @@
         <v>277030</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>179</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>180</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3091,13 +3073,13 @@
         <v>608742</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>183</v>
+        <v>57</v>
       </c>
       <c r="H13" s="7">
         <v>643</v>
@@ -3109,10 +3091,10 @@
         <v>148</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M13" s="7">
         <v>1203</v>
@@ -3121,13 +3103,13 @@
         <v>1298775</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3142,13 +3124,13 @@
         <v>140640</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>190</v>
+        <v>66</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H14" s="7">
         <v>91</v>
@@ -3160,10 +3142,10 @@
         <v>157</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="M14" s="7">
         <v>218</v>
@@ -3172,13 +3154,13 @@
         <v>233704</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3246,13 +3228,13 @@
         <v>753456</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>152</v>
+        <v>195</v>
       </c>
       <c r="H16" s="7">
         <v>787</v>
@@ -3261,13 +3243,13 @@
         <v>864884</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>96</v>
+        <v>196</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M16" s="7">
         <v>1539</v>
@@ -3279,10 +3261,10 @@
         <v>163</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3297,13 +3279,13 @@
         <v>177896</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="H17" s="7">
         <v>168</v>
@@ -3312,7 +3294,7 @@
         <v>174780</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>106</v>
+        <v>204</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>205</v>
@@ -3327,7 +3309,7 @@
         <v>352676</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>207</v>
@@ -3422,22 +3404,22 @@
         <v>213</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>214</v>
+        <v>78</v>
       </c>
       <c r="M19" s="7">
         <v>5520</v>
       </c>
       <c r="N19" s="7">
-        <v>5843251</v>
+        <v>5843250</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3452,13 +3434,13 @@
         <v>609647</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="H20" s="7">
         <v>439</v>
@@ -3467,13 +3449,13 @@
         <v>444990</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M20" s="7">
         <v>1013</v>
@@ -3482,13 +3464,13 @@
         <v>1054638</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3530,7 +3512,7 @@
         <v>6533</v>
       </c>
       <c r="N21" s="7">
-        <v>6897889</v>
+        <v>6897888</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3565,7 +3547,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12D2AE7F-BBEB-4FE6-88C8-94B3D40B2F41}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92CC4056-3459-4A00-BBF9-1449BA665C42}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3582,7 +3564,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3689,13 +3671,13 @@
         <v>92947</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="H4" s="7">
         <v>227</v>
@@ -3704,13 +3686,13 @@
         <v>119327</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>232</v>
+        <v>95</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M4" s="7">
         <v>339</v>
@@ -3719,13 +3701,13 @@
         <v>212274</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3740,13 +3722,13 @@
         <v>9035</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H5" s="7">
         <v>15</v>
@@ -3755,13 +3737,13 @@
         <v>10827</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>242</v>
+        <v>104</v>
       </c>
       <c r="M5" s="7">
         <v>21</v>
@@ -3770,13 +3752,13 @@
         <v>19862</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3844,13 +3826,13 @@
         <v>473888</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H7" s="7">
         <v>936</v>
@@ -3859,13 +3841,13 @@
         <v>545913</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="M7" s="7">
         <v>1493</v>
@@ -3874,13 +3856,13 @@
         <v>1019801</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3895,13 +3877,13 @@
         <v>75935</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H8" s="7">
         <v>57</v>
@@ -3910,13 +3892,13 @@
         <v>45133</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M8" s="7">
         <v>112</v>
@@ -3925,13 +3907,13 @@
         <v>121068</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3999,13 +3981,13 @@
         <v>763428</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H10" s="7">
         <v>1337</v>
@@ -4014,13 +3996,13 @@
         <v>888056</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>267</v>
+        <v>215</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="M10" s="7">
         <v>2131</v>
@@ -4029,13 +4011,13 @@
         <v>1651485</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>270</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,13 +4032,13 @@
         <v>275004</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H11" s="7">
         <v>178</v>
@@ -4065,13 +4047,13 @@
         <v>171259</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>275</v>
+        <v>224</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="M11" s="7">
         <v>347</v>
@@ -4083,10 +4065,10 @@
         <v>273</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4154,13 +4136,13 @@
         <v>581724</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H13" s="7">
         <v>942</v>
@@ -4169,13 +4151,13 @@
         <v>765382</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="M13" s="7">
         <v>1509</v>
@@ -4184,13 +4166,13 @@
         <v>1347107</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4205,13 +4187,13 @@
         <v>145977</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H14" s="7">
         <v>104</v>
@@ -4220,13 +4202,13 @@
         <v>108364</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="M14" s="7">
         <v>212</v>
@@ -4235,13 +4217,13 @@
         <v>254340</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4309,13 +4291,13 @@
         <v>773424</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>33</v>
+        <v>294</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>299</v>
+        <v>32</v>
       </c>
       <c r="H16" s="7">
         <v>1410</v>
@@ -4324,13 +4306,13 @@
         <v>979547</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M16" s="7">
         <v>2267</v>
@@ -4339,13 +4321,13 @@
         <v>1752971</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>304</v>
+        <v>199</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4360,13 +4342,13 @@
         <v>191979</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>43</v>
+        <v>301</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>306</v>
+        <v>41</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="H17" s="7">
         <v>150</v>
@@ -4375,13 +4357,13 @@
         <v>170076</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="M17" s="7">
         <v>299</v>
@@ -4390,13 +4372,13 @@
         <v>362055</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>313</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4464,13 +4446,13 @@
         <v>2685412</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>316</v>
+        <v>89</v>
       </c>
       <c r="H19" s="7">
         <v>4852</v>
@@ -4479,13 +4461,13 @@
         <v>3298225</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>113</v>
+        <v>311</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="M19" s="7">
         <v>7739</v>
@@ -4494,13 +4476,13 @@
         <v>5983638</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4515,13 +4497,13 @@
         <v>697930</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>323</v>
+        <v>98</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H20" s="7">
         <v>504</v>
@@ -4530,13 +4512,13 @@
         <v>505659</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>122</v>
+        <v>320</v>
       </c>
       <c r="M20" s="7">
         <v>991</v>
@@ -4545,13 +4527,13 @@
         <v>1203588</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P38B-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P38B-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{310AACCD-F754-4550-BC93-846DADEB5B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B123498D-1051-438C-9C8D-003C345AEE83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1327D966-60DC-4ECE-9130-55E6576A3F71}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C98092ED-3859-4474-99EB-2F811353F388}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -76,28 +76,28 @@
     <t>83,31%</t>
   </si>
   <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
   </si>
   <si>
     <t>90,55%</t>
   </si>
   <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
   </si>
   <si>
     <t>86,85%</t>
   </si>
   <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,862 +106,862 @@
     <t>16,69%</t>
   </si>
   <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
   </si>
   <si>
     <t>9,45%</t>
   </si>
   <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
   </si>
   <si>
     <t>13,15%</t>
   </si>
   <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>82,94%</t>
   </si>
   <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
   </si>
   <si>
     <t>85,6%</t>
   </si>
   <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
   </si>
   <si>
     <t>84,26%</t>
   </si>
   <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
   </si>
   <si>
     <t>17,06%</t>
   </si>
   <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
   </si>
   <si>
     <t>14,4%</t>
   </si>
   <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
   </si>
   <si>
     <t>15,74%</t>
   </si>
   <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>81,35%</t>
   </si>
   <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
   </si>
   <si>
     <t>86,41%</t>
   </si>
   <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si le han medido los niveles de colesterol por prescripción médica en 2016 (Tasa respuesta: 99,45%)</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
     <t>84,15%</t>
   </si>
   <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
   </si>
   <si>
     <t>15,85%</t>
   </si>
   <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si le han medido los niveles de colesterol por prescripción médica en 2015 (Tasa respuesta: 99,45%)</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
   </si>
   <si>
     <t>15,25%</t>
   </si>
   <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
+    <t>17,32%</t>
   </si>
   <si>
     <t>80,9%</t>
   </si>
   <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
   </si>
   <si>
     <t>83,19%</t>
   </si>
   <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>Población según si le han medido los niveles de colesterol por prescripción médica en 2023 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
   </si>
   <si>
     <t>80,36%</t>
   </si>
   <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
   </si>
   <si>
     <t>19,64%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>Población según si le han medido los niveles de colesterol por prescripción médica en 2023 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
   </si>
   <si>
     <t>79,37%</t>
@@ -1421,7 +1421,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{816B288D-2590-4B46-9544-736F4EA435D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3B33B8-64EB-4D95-BC07-7CFC548F15EA}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2198,10 +2198,10 @@
         <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2216,13 +2216,13 @@
         <v>173856</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>119</v>
@@ -2231,13 +2231,13 @@
         <v>123118</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>293</v>
@@ -2246,13 +2246,13 @@
         <v>296974</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2320,13 +2320,13 @@
         <v>2794901</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>2872</v>
@@ -2335,13 +2335,13 @@
         <v>3106278</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>5472</v>
@@ -2350,13 +2350,13 @@
         <v>5901178</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2371,28 +2371,28 @@
         <v>607921</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>408</v>
       </c>
       <c r="I20" s="7">
-        <v>432185</v>
+        <v>432186</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>995</v>
@@ -2401,13 +2401,13 @@
         <v>1040107</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2434,7 +2434,7 @@
         <v>3280</v>
       </c>
       <c r="I21" s="7">
-        <v>3538463</v>
+        <v>3538464</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2463,7 +2463,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2484,7 +2484,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4986D15-4C05-46D5-91EB-3624CD15C004}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EBA2955-CA68-4B28-B320-E36FEF3A71F2}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2501,7 +2501,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2608,13 +2608,13 @@
         <v>98668</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>99</v>
@@ -2623,13 +2623,13 @@
         <v>98375</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>195</v>
@@ -2638,13 +2638,13 @@
         <v>197042</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2659,13 +2659,13 @@
         <v>17878</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H5" s="7">
         <v>16</v>
@@ -2674,13 +2674,13 @@
         <v>14985</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>33</v>
@@ -2689,13 +2689,13 @@
         <v>32864</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2763,13 +2763,13 @@
         <v>463148</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H7" s="7">
         <v>482</v>
@@ -2778,13 +2778,13 @@
         <v>490427</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>931</v>
@@ -2793,13 +2793,13 @@
         <v>953576</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2814,13 +2814,13 @@
         <v>92264</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>66</v>
@@ -2829,13 +2829,13 @@
         <v>66101</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M8" s="7">
         <v>154</v>
@@ -2844,13 +2844,13 @@
         <v>158365</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2918,13 +2918,13 @@
         <v>830531</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H10" s="7">
         <v>877</v>
@@ -2933,13 +2933,13 @@
         <v>944987</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M10" s="7">
         <v>1652</v>
@@ -2948,13 +2948,13 @@
         <v>1775517</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>169</v>
+        <v>96</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>113</v>
+        <v>167</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2969,13 +2969,13 @@
         <v>180969</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H11" s="7">
         <v>98</v>
@@ -2984,13 +2984,13 @@
         <v>96060</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M11" s="7">
         <v>265</v>
@@ -2999,13 +2999,13 @@
         <v>277030</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>122</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3073,13 +3073,13 @@
         <v>608742</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="H13" s="7">
         <v>643</v>
@@ -3088,13 +3088,13 @@
         <v>690033</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>181</v>
+        <v>72</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M13" s="7">
         <v>1203</v>
@@ -3103,13 +3103,13 @@
         <v>1298775</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>185</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3124,13 +3124,13 @@
         <v>140640</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>66</v>
+        <v>184</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H14" s="7">
         <v>91</v>
@@ -3139,13 +3139,13 @@
         <v>93064</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>189</v>
+        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>218</v>
@@ -3154,13 +3154,13 @@
         <v>233704</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>191</v>
+        <v>48</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3228,13 +3228,13 @@
         <v>753456</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H16" s="7">
         <v>787</v>
@@ -3243,13 +3243,13 @@
         <v>864884</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M16" s="7">
         <v>1539</v>
@@ -3258,13 +3258,13 @@
         <v>1618340</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3279,13 +3279,13 @@
         <v>177896</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H17" s="7">
         <v>168</v>
@@ -3294,13 +3294,13 @@
         <v>174780</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="M17" s="7">
         <v>343</v>
@@ -3309,13 +3309,13 @@
         <v>352676</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3383,13 +3383,13 @@
         <v>2754545</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H19" s="7">
         <v>2888</v>
@@ -3398,28 +3398,28 @@
         <v>3088706</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>78</v>
+        <v>210</v>
       </c>
       <c r="M19" s="7">
         <v>5520</v>
       </c>
       <c r="N19" s="7">
-        <v>5843250</v>
+        <v>5843251</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3434,13 +3434,13 @@
         <v>609647</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H20" s="7">
         <v>439</v>
@@ -3449,13 +3449,13 @@
         <v>444990</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>86</v>
+        <v>218</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M20" s="7">
         <v>1013</v>
@@ -3464,13 +3464,13 @@
         <v>1054638</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3512,7 +3512,7 @@
         <v>6533</v>
       </c>
       <c r="N21" s="7">
-        <v>6897888</v>
+        <v>6897889</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3526,7 +3526,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3547,7 +3547,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92CC4056-3459-4A00-BBF9-1449BA665C42}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45B6FA33-2608-4B6A-B706-1B640DB9E87E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3564,7 +3564,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3671,13 +3671,13 @@
         <v>92947</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="H4" s="7">
         <v>227</v>
@@ -3686,13 +3686,13 @@
         <v>119327</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>95</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M4" s="7">
         <v>339</v>
@@ -3701,13 +3701,13 @@
         <v>212274</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3722,13 +3722,13 @@
         <v>9035</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H5" s="7">
         <v>15</v>
@@ -3737,13 +3737,13 @@
         <v>10827</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>21</v>
@@ -3752,13 +3752,13 @@
         <v>19862</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3826,13 +3826,13 @@
         <v>473888</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="H7" s="7">
         <v>936</v>
@@ -3841,13 +3841,13 @@
         <v>545913</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="M7" s="7">
         <v>1493</v>
@@ -3856,13 +3856,13 @@
         <v>1019801</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3877,13 +3877,13 @@
         <v>75935</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H8" s="7">
         <v>57</v>
@@ -3892,13 +3892,13 @@
         <v>45133</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="M8" s="7">
         <v>112</v>
@@ -3907,13 +3907,13 @@
         <v>121068</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3981,13 +3981,13 @@
         <v>763428</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="H10" s="7">
         <v>1337</v>
@@ -3996,13 +3996,13 @@
         <v>888056</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>215</v>
+        <v>261</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="M10" s="7">
         <v>2131</v>
@@ -4011,13 +4011,13 @@
         <v>1651485</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4032,13 +4032,13 @@
         <v>275004</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="H11" s="7">
         <v>178</v>
@@ -4047,7 +4047,7 @@
         <v>171259</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>224</v>
+        <v>270</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>271</v>
@@ -4309,10 +4309,10 @@
         <v>296</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="M16" s="7">
         <v>2267</v>
@@ -4321,10 +4321,10 @@
         <v>1752971</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>300</v>
@@ -4363,7 +4363,7 @@
         <v>304</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>305</v>
+        <v>142</v>
       </c>
       <c r="M17" s="7">
         <v>299</v>
@@ -4372,13 +4372,13 @@
         <v>362055</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4500,7 +4500,7 @@
         <v>316</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>317</v>
@@ -4589,7 +4589,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P38B-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P38B-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B123498D-1051-438C-9C8D-003C345AEE83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{70D9A724-DC23-4DF5-8B8A-803F8A768F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C98092ED-3859-4474-99EB-2F811353F388}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EFFD659A-5D65-4808-A306-AEAA4A030DCF}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="330">
   <si>
     <t>Población según si le han medido los niveles de colesterol por prescripción médica en 2012 (Tasa respuesta: 99,39%)</t>
   </si>
@@ -70,34 +70,34 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>83,31%</t>
   </si>
   <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
   </si>
   <si>
     <t>90,55%</t>
   </si>
   <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
   </si>
   <si>
     <t>86,85%</t>
   </si>
   <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>16,69%</t>
   </si>
   <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
   </si>
   <si>
     <t>9,45%</t>
   </si>
   <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
   </si>
   <si>
     <t>13,15%</t>
   </si>
   <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,703 +139,718 @@
     <t>82,94%</t>
   </si>
   <si>
-    <t>79,61%</t>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si le han medido los niveles de colesterol por prescripción médica en 2016 (Tasa respuesta: 99,45%)</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
   </si>
   <si>
     <t>85,83%</t>
   </si>
   <si>
-    <t>85,6%</t>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
   </si>
   <si>
     <t>82,77%</t>
   </si>
   <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
   </si>
   <si>
     <t>14,17%</t>
   </si>
   <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
   </si>
   <si>
     <t>17,23%</t>
   </si>
   <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
   </si>
   <si>
     <t>83,79%</t>
   </si>
   <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
   </si>
   <si>
     <t>16,21%</t>
   </si>
   <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si le han medido los niveles de colesterol por prescripción médica en 2016 (Tasa respuesta: 99,45%)</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
+    <t>Población según si le han medido los niveles de colesterol por prescripción médica en 2023 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
   </si>
   <si>
     <t>85,25%</t>
   </si>
   <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
   </si>
   <si>
     <t>14,75%</t>
   </si>
   <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>79,62%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>Población según si le han medido los niveles de colesterol por prescripción médica en 2023 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
     <t>86,19%</t>
   </si>
   <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
   </si>
   <si>
     <t>92,36%</t>
   </si>
   <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
   </si>
   <si>
     <t>89,39%</t>
   </si>
   <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
   </si>
   <si>
     <t>13,81%</t>
   </si>
   <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
   </si>
   <si>
     <t>7,64%</t>
   </si>
   <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
   </si>
   <si>
     <t>10,61%</t>
   </si>
   <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
   </si>
   <si>
     <t>73,52%</t>
   </si>
   <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
   </si>
   <si>
     <t>83,83%</t>
   </si>
   <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
   </si>
   <si>
     <t>81,5%</t>
@@ -844,172 +859,175 @@
     <t>26,48%</t>
   </si>
   <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
   </si>
   <si>
     <t>16,17%</t>
   </si>
   <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
   </si>
   <si>
     <t>18,5%</t>
   </si>
   <si>
-    <t>28,23%</t>
+    <t>29,2%</t>
   </si>
   <si>
     <t>79,94%</t>
   </si>
   <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
   </si>
   <si>
     <t>87,6%</t>
   </si>
   <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
   </si>
   <si>
     <t>84,12%</t>
   </si>
   <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
   </si>
   <si>
     <t>20,06%</t>
   </si>
   <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
   </si>
   <si>
     <t>12,4%</t>
   </si>
   <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
   </si>
   <si>
     <t>15,88%</t>
   </si>
   <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
   </si>
   <si>
     <t>85,21%</t>
   </si>
   <si>
-    <t>87,64%</t>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
   </si>
   <si>
     <t>82,88%</t>
   </si>
   <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
   </si>
   <si>
     <t>14,79%</t>
   </si>
   <si>
-    <t>12,36%</t>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
   </si>
   <si>
     <t>17,12%</t>
   </si>
   <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
   </si>
   <si>
     <t>79,37%</t>
   </si>
   <si>
-    <t>75,18%</t>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
   </si>
   <si>
     <t>86,71%</t>
   </si>
   <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
+    <t>88,22%</t>
   </si>
   <si>
     <t>83,25%</t>
   </si>
   <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
   </si>
   <si>
     <t>20,63%</t>
   </si>
   <si>
-    <t>24,82%</t>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
   </si>
   <si>
     <t>13,29%</t>
   </si>
   <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
+    <t>11,78%</t>
   </si>
   <si>
     <t>16,75%</t>
   </si>
   <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
   </si>
 </sst>
 </file>
@@ -1421,7 +1439,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3B33B8-64EB-4D95-BC07-7CFC548F15EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E89BA45-F1D0-424C-B3CD-734C3CC41F4B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2007,7 +2025,7 @@
         <v>561</v>
       </c>
       <c r="D13" s="7">
-        <v>622907</v>
+        <v>622908</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2109,7 +2127,7 @@
         <v>681</v>
       </c>
       <c r="D15" s="7">
-        <v>748707</v>
+        <v>748708</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2198,10 +2216,10 @@
         <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2216,13 +2234,13 @@
         <v>173856</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>119</v>
@@ -2231,13 +2249,13 @@
         <v>123118</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>293</v>
@@ -2246,13 +2264,13 @@
         <v>296974</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2320,13 +2338,13 @@
         <v>2794901</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>2872</v>
@@ -2335,13 +2353,13 @@
         <v>3106278</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>5472</v>
@@ -2350,13 +2368,13 @@
         <v>5901178</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2371,13 +2389,13 @@
         <v>607921</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>408</v>
@@ -2386,13 +2404,13 @@
         <v>432186</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>995</v>
@@ -2401,13 +2419,13 @@
         <v>1040107</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2463,7 +2481,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2484,7 +2502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EBA2955-CA68-4B28-B320-E36FEF3A71F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70AC1541-1DBB-4D0E-A3A8-2AB2DCF0091D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2501,7 +2519,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2608,13 +2626,13 @@
         <v>98668</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>99</v>
@@ -2623,13 +2641,13 @@
         <v>98375</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>195</v>
@@ -2638,13 +2656,13 @@
         <v>197042</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2659,13 +2677,13 @@
         <v>17878</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H5" s="7">
         <v>16</v>
@@ -2674,13 +2692,13 @@
         <v>14985</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>33</v>
@@ -2689,13 +2707,13 @@
         <v>32864</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2763,13 +2781,13 @@
         <v>463148</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H7" s="7">
         <v>482</v>
@@ -2778,13 +2796,13 @@
         <v>490427</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>931</v>
@@ -2793,13 +2811,13 @@
         <v>953576</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2814,13 +2832,13 @@
         <v>92264</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>66</v>
@@ -2829,13 +2847,13 @@
         <v>66101</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M8" s="7">
         <v>154</v>
@@ -2844,13 +2862,13 @@
         <v>158365</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2918,13 +2936,13 @@
         <v>830531</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H10" s="7">
         <v>877</v>
@@ -2933,13 +2951,13 @@
         <v>944987</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M10" s="7">
         <v>1652</v>
@@ -2948,13 +2966,13 @@
         <v>1775517</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>96</v>
+        <v>169</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2969,13 +2987,13 @@
         <v>180969</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H11" s="7">
         <v>98</v>
@@ -2984,13 +3002,13 @@
         <v>96060</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="M11" s="7">
         <v>265</v>
@@ -2999,13 +3017,13 @@
         <v>277030</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>104</v>
+        <v>178</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3073,13 +3091,13 @@
         <v>608742</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H13" s="7">
         <v>643</v>
@@ -3088,13 +3106,13 @@
         <v>690033</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>184</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="M13" s="7">
         <v>1203</v>
@@ -3103,13 +3121,13 @@
         <v>1298775</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>40</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3124,13 +3142,13 @@
         <v>140640</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H14" s="7">
         <v>91</v>
@@ -3139,13 +3157,13 @@
         <v>93064</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>193</v>
       </c>
       <c r="M14" s="7">
         <v>218</v>
@@ -3154,13 +3172,13 @@
         <v>233704</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3228,13 +3246,13 @@
         <v>753456</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>191</v>
+        <v>152</v>
       </c>
       <c r="H16" s="7">
         <v>787</v>
@@ -3243,13 +3261,13 @@
         <v>864884</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>192</v>
+        <v>96</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="M16" s="7">
         <v>1539</v>
@@ -3258,13 +3276,13 @@
         <v>1618340</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3279,13 +3297,13 @@
         <v>177896</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>198</v>
+        <v>162</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="H17" s="7">
         <v>168</v>
@@ -3294,13 +3312,13 @@
         <v>174780</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>200</v>
+        <v>106</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="M17" s="7">
         <v>343</v>
@@ -3309,13 +3327,13 @@
         <v>352676</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3383,13 +3401,13 @@
         <v>2754545</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="H19" s="7">
         <v>2888</v>
@@ -3398,13 +3416,13 @@
         <v>3088706</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="M19" s="7">
         <v>5520</v>
@@ -3413,13 +3431,13 @@
         <v>5843251</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3434,13 +3452,13 @@
         <v>609647</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="H20" s="7">
         <v>439</v>
@@ -3449,13 +3467,13 @@
         <v>444990</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="M20" s="7">
         <v>1013</v>
@@ -3464,13 +3482,13 @@
         <v>1054638</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3526,7 +3544,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3547,7 +3565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45B6FA33-2608-4B6A-B706-1B640DB9E87E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52AA7DCC-B68B-4B76-9162-EA87ACE798E3}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3564,7 +3582,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3671,13 +3689,13 @@
         <v>92947</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="H4" s="7">
         <v>227</v>
@@ -3686,13 +3704,13 @@
         <v>119327</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>95</v>
+        <v>232</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="M4" s="7">
         <v>339</v>
@@ -3701,13 +3719,13 @@
         <v>212274</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3722,13 +3740,13 @@
         <v>9035</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="H5" s="7">
         <v>15</v>
@@ -3737,13 +3755,13 @@
         <v>10827</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>103</v>
+        <v>242</v>
       </c>
       <c r="M5" s="7">
         <v>21</v>
@@ -3752,13 +3770,13 @@
         <v>19862</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3826,13 +3844,13 @@
         <v>473888</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="H7" s="7">
         <v>936</v>
@@ -3841,13 +3859,13 @@
         <v>545913</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="M7" s="7">
         <v>1493</v>
@@ -3856,13 +3874,13 @@
         <v>1019801</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3877,13 +3895,13 @@
         <v>75935</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="H8" s="7">
         <v>57</v>
@@ -3892,13 +3910,13 @@
         <v>45133</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="M8" s="7">
         <v>112</v>
@@ -3907,13 +3925,13 @@
         <v>121068</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3981,13 +3999,13 @@
         <v>763428</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="H10" s="7">
         <v>1337</v>
@@ -3996,13 +4014,13 @@
         <v>888056</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="M10" s="7">
         <v>2131</v>
@@ -4011,13 +4029,13 @@
         <v>1651485</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4032,13 +4050,13 @@
         <v>275004</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="H11" s="7">
         <v>178</v>
@@ -4047,13 +4065,13 @@
         <v>171259</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="M11" s="7">
         <v>347</v>
@@ -4065,10 +4083,10 @@
         <v>273</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4136,13 +4154,13 @@
         <v>581724</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="H13" s="7">
         <v>942</v>
@@ -4151,13 +4169,13 @@
         <v>765382</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="M13" s="7">
         <v>1509</v>
@@ -4166,13 +4184,13 @@
         <v>1347107</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4187,13 +4205,13 @@
         <v>145977</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="H14" s="7">
         <v>104</v>
@@ -4202,13 +4220,13 @@
         <v>108364</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="M14" s="7">
         <v>212</v>
@@ -4217,13 +4235,13 @@
         <v>254340</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4291,13 +4309,13 @@
         <v>773424</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>294</v>
+        <v>33</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>32</v>
+        <v>299</v>
       </c>
       <c r="H16" s="7">
         <v>1410</v>
@@ -4306,13 +4324,13 @@
         <v>979547</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>132</v>
+        <v>301</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="M16" s="7">
         <v>2267</v>
@@ -4321,13 +4339,13 @@
         <v>1752971</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4342,13 +4360,13 @@
         <v>191979</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>301</v>
+        <v>43</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>41</v>
+        <v>306</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="H17" s="7">
         <v>150</v>
@@ -4357,13 +4375,13 @@
         <v>170076</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>142</v>
+        <v>310</v>
       </c>
       <c r="M17" s="7">
         <v>299</v>
@@ -4372,13 +4390,13 @@
         <v>362055</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4446,13 +4464,13 @@
         <v>2685412</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>89</v>
+        <v>316</v>
       </c>
       <c r="H19" s="7">
         <v>4852</v>
@@ -4461,13 +4479,13 @@
         <v>3298225</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>311</v>
+        <v>113</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="M19" s="7">
         <v>7739</v>
@@ -4476,13 +4494,13 @@
         <v>5983638</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4497,13 +4515,13 @@
         <v>697930</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>97</v>
+        <v>323</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="H20" s="7">
         <v>504</v>
@@ -4512,13 +4530,13 @@
         <v>505659</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>320</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>991</v>
@@ -4527,13 +4545,13 @@
         <v>1203588</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4589,7 +4607,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P38B-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P38B-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70D9A724-DC23-4DF5-8B8A-803F8A768F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B9783BB-26D7-4F01-8E77-23C756967EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EFFD659A-5D65-4808-A306-AEAA4A030DCF}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{95C3313C-ADEE-450D-A0A1-74A6F1220D31}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="275">
   <si>
     <t>Población según si le han medido los niveles de colesterol por prescripción médica en 2012 (Tasa respuesta: 99,39%)</t>
   </si>
@@ -67,967 +67,802 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si le han medido los niveles de colesterol por prescripción médica en 2016 (Tasa respuesta: 99,45%)</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>Población según si le han medido los niveles de colesterol por prescripción médica en 2023 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
   </si>
   <si>
     <t>86,85%</t>
   </si>
   <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
   </si>
   <si>
     <t>13,15%</t>
   </si>
   <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si le han medido los niveles de colesterol por prescripción médica en 2016 (Tasa respuesta: 99,45%)</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>Población según si le han medido los niveles de colesterol por prescripción médica en 2023 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>59,33%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
   </si>
 </sst>
 </file>
@@ -1439,8 +1274,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E89BA45-F1D0-424C-B3CD-734C3CC41F4B}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1468626D-1E45-4B78-85C4-2F2C59948F67}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1557,10 +1392,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>100</v>
+        <v>553</v>
       </c>
       <c r="D4" s="7">
-        <v>96446</v>
+        <v>583110</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1572,10 +1407,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>88</v>
+        <v>556</v>
       </c>
       <c r="I4" s="7">
-        <v>100272</v>
+        <v>597492</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1587,10 +1422,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>188</v>
+        <v>1109</v>
       </c>
       <c r="N4" s="7">
-        <v>196718</v>
+        <v>1180602</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1608,10 +1443,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="D5" s="7">
-        <v>19319</v>
+        <v>119406</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1623,10 +1458,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="I5" s="7">
-        <v>10461</v>
+        <v>94116</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1638,10 +1473,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>32</v>
+        <v>209</v>
       </c>
       <c r="N5" s="7">
-        <v>29780</v>
+        <v>213522</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1659,10 +1494,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>673</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>702516</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1674,10 +1509,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>98</v>
+        <v>645</v>
       </c>
       <c r="I6" s="7">
-        <v>110733</v>
+        <v>691608</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1689,10 +1524,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>220</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>226498</v>
+        <v>1394124</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1712,10 +1547,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>453</v>
+        <v>758</v>
       </c>
       <c r="D7" s="7">
-        <v>486664</v>
+        <v>823935</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1727,10 +1562,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>468</v>
+        <v>808</v>
       </c>
       <c r="I7" s="7">
-        <v>497220</v>
+        <v>888268</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1742,10 +1577,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>921</v>
+        <v>1566</v>
       </c>
       <c r="N7" s="7">
-        <v>983884</v>
+        <v>1712204</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1763,10 +1598,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>98</v>
+        <v>173</v>
       </c>
       <c r="D8" s="7">
-        <v>100087</v>
+        <v>188859</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1778,10 +1613,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="I8" s="7">
-        <v>83655</v>
+        <v>139648</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1793,10 +1628,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>177</v>
+        <v>301</v>
       </c>
       <c r="N8" s="7">
-        <v>183742</v>
+        <v>328507</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1814,10 +1649,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>551</v>
+        <v>931</v>
       </c>
       <c r="D9" s="7">
-        <v>586751</v>
+        <v>1012794</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1829,10 +1664,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>547</v>
+        <v>936</v>
       </c>
       <c r="I9" s="7">
-        <v>580875</v>
+        <v>1027916</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1844,10 +1679,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1098</v>
+        <v>1867</v>
       </c>
       <c r="N9" s="7">
-        <v>1167626</v>
+        <v>2040711</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1867,10 +1702,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>758</v>
+        <v>561</v>
       </c>
       <c r="D10" s="7">
-        <v>823935</v>
+        <v>622907</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1882,10 +1717,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>808</v>
+        <v>628</v>
       </c>
       <c r="I10" s="7">
-        <v>888268</v>
+        <v>695654</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1897,10 +1732,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>1566</v>
+        <v>1189</v>
       </c>
       <c r="N10" s="7">
-        <v>1712204</v>
+        <v>1318561</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1918,10 +1753,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>173</v>
+        <v>120</v>
       </c>
       <c r="D11" s="7">
-        <v>188859</v>
+        <v>125800</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1933,10 +1768,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="I11" s="7">
-        <v>139648</v>
+        <v>75304</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1948,10 +1783,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>301</v>
+        <v>192</v>
       </c>
       <c r="N11" s="7">
-        <v>328507</v>
+        <v>201104</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1969,10 +1804,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>931</v>
+        <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>1012794</v>
+        <v>748707</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1984,10 +1819,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>936</v>
+        <v>700</v>
       </c>
       <c r="I12" s="7">
-        <v>1027916</v>
+        <v>770958</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1999,10 +1834,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1867</v>
+        <v>1381</v>
       </c>
       <c r="N12" s="7">
-        <v>2040711</v>
+        <v>1519665</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2022,10 +1857,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>561</v>
+        <v>728</v>
       </c>
       <c r="D13" s="7">
-        <v>622908</v>
+        <v>764948</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2037,10 +1872,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>628</v>
+        <v>880</v>
       </c>
       <c r="I13" s="7">
-        <v>695654</v>
+        <v>924863</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2052,10 +1887,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>1189</v>
+        <v>1608</v>
       </c>
       <c r="N13" s="7">
-        <v>1318561</v>
+        <v>1689811</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2073,10 +1908,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>120</v>
+        <v>174</v>
       </c>
       <c r="D14" s="7">
-        <v>125800</v>
+        <v>173856</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2088,10 +1923,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="I14" s="7">
-        <v>75304</v>
+        <v>123118</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2103,10 +1938,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>192</v>
+        <v>293</v>
       </c>
       <c r="N14" s="7">
-        <v>201104</v>
+        <v>296974</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2124,10 +1959,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>681</v>
+        <v>902</v>
       </c>
       <c r="D15" s="7">
-        <v>748708</v>
+        <v>938804</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2139,10 +1974,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>700</v>
+        <v>999</v>
       </c>
       <c r="I15" s="7">
-        <v>770958</v>
+        <v>1047981</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2154,10 +1989,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1381</v>
+        <v>1901</v>
       </c>
       <c r="N15" s="7">
-        <v>1519665</v>
+        <v>1986785</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2171,55 +2006,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>728</v>
+        <v>2600</v>
       </c>
       <c r="D16" s="7">
-        <v>764948</v>
+        <v>2794901</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>2872</v>
+      </c>
+      <c r="I16" s="7">
+        <v>3106278</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>880</v>
-      </c>
-      <c r="I16" s="7">
-        <v>924863</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>5472</v>
+      </c>
+      <c r="N16" s="7">
+        <v>5901178</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>1608</v>
-      </c>
-      <c r="N16" s="7">
-        <v>1689811</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2228,49 +2063,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>174</v>
+        <v>587</v>
       </c>
       <c r="D17" s="7">
-        <v>173856</v>
+        <v>607921</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>408</v>
+      </c>
+      <c r="I17" s="7">
+        <v>432185</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>119</v>
-      </c>
-      <c r="I17" s="7">
-        <v>123118</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M17" s="7">
+        <v>995</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1040107</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="M17" s="7">
-        <v>293</v>
-      </c>
-      <c r="N17" s="7">
-        <v>296974</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2279,10 +2114,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>902</v>
+        <v>3187</v>
       </c>
       <c r="D18" s="7">
-        <v>938804</v>
+        <v>3402822</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2294,10 +2129,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>999</v>
+        <v>3280</v>
       </c>
       <c r="I18" s="7">
-        <v>1047981</v>
+        <v>3538463</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2309,10 +2144,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1901</v>
+        <v>6467</v>
       </c>
       <c r="N18" s="7">
-        <v>1986785</v>
+        <v>6941285</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2325,171 +2160,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>2600</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2794901</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2872</v>
-      </c>
-      <c r="I19" s="7">
-        <v>3106278</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>5472</v>
-      </c>
-      <c r="N19" s="7">
-        <v>5901178</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>587</v>
-      </c>
-      <c r="D20" s="7">
-        <v>607921</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>408</v>
-      </c>
-      <c r="I20" s="7">
-        <v>432186</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>995</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1040107</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3187</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3402822</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3280</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3538464</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6467</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6941285</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2502,8 +2181,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70AC1541-1DBB-4D0E-A3A8-2AB2DCF0091D}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28BE0D69-C747-4068-988D-6BB1CA750BCE}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2519,7 +2198,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2620,49 +2299,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>96</v>
+        <v>545</v>
       </c>
       <c r="D4" s="7">
-        <v>98668</v>
+        <v>561816</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="H4" s="7">
-        <v>99</v>
+        <v>581</v>
       </c>
       <c r="I4" s="7">
-        <v>98375</v>
+        <v>588802</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>132</v>
+        <v>54</v>
       </c>
       <c r="M4" s="7">
-        <v>195</v>
+        <v>1126</v>
       </c>
       <c r="N4" s="7">
-        <v>197042</v>
+        <v>1150619</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2671,49 +2350,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="D5" s="7">
-        <v>17878</v>
+        <v>110142</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="H5" s="7">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="I5" s="7">
-        <v>14985</v>
+        <v>81086</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>140</v>
+        <v>63</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="M5" s="7">
-        <v>33</v>
+        <v>187</v>
       </c>
       <c r="N5" s="7">
-        <v>32864</v>
+        <v>191228</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2722,10 +2401,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>650</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>671958</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2737,10 +2416,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>663</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>669888</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2752,10 +2431,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1313</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1341847</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2775,49 +2454,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>449</v>
+        <v>775</v>
       </c>
       <c r="D7" s="7">
-        <v>463148</v>
+        <v>830531</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="H7" s="7">
-        <v>482</v>
+        <v>877</v>
       </c>
       <c r="I7" s="7">
-        <v>490427</v>
+        <v>944987</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="M7" s="7">
-        <v>931</v>
+        <v>1652</v>
       </c>
       <c r="N7" s="7">
-        <v>953576</v>
+        <v>1775517</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2826,49 +2505,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>88</v>
+        <v>167</v>
       </c>
       <c r="D8" s="7">
-        <v>92264</v>
+        <v>180969</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="H8" s="7">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="I8" s="7">
-        <v>66101</v>
+        <v>96060</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="M8" s="7">
-        <v>154</v>
+        <v>265</v>
       </c>
       <c r="N8" s="7">
-        <v>158365</v>
+        <v>277030</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2877,10 +2556,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>537</v>
+        <v>942</v>
       </c>
       <c r="D9" s="7">
-        <v>555412</v>
+        <v>1011500</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2892,10 +2571,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>548</v>
+        <v>975</v>
       </c>
       <c r="I9" s="7">
-        <v>556528</v>
+        <v>1041047</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2907,10 +2586,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1085</v>
+        <v>1917</v>
       </c>
       <c r="N9" s="7">
-        <v>1111941</v>
+        <v>2052547</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2930,49 +2609,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>775</v>
+        <v>560</v>
       </c>
       <c r="D10" s="7">
-        <v>830531</v>
+        <v>608742</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="H10" s="7">
-        <v>877</v>
+        <v>643</v>
       </c>
       <c r="I10" s="7">
-        <v>944987</v>
+        <v>690033</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="M10" s="7">
-        <v>1652</v>
+        <v>1203</v>
       </c>
       <c r="N10" s="7">
-        <v>1775517</v>
+        <v>1298775</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2981,49 +2660,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>167</v>
+        <v>127</v>
       </c>
       <c r="D11" s="7">
-        <v>180969</v>
+        <v>140640</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="H11" s="7">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="I11" s="7">
-        <v>96060</v>
+        <v>93064</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="M11" s="7">
-        <v>265</v>
+        <v>218</v>
       </c>
       <c r="N11" s="7">
-        <v>277030</v>
+        <v>233704</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3032,10 +2711,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>942</v>
+        <v>687</v>
       </c>
       <c r="D12" s="7">
-        <v>1011500</v>
+        <v>749382</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3047,10 +2726,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>975</v>
+        <v>734</v>
       </c>
       <c r="I12" s="7">
-        <v>1041047</v>
+        <v>783097</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3062,10 +2741,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1917</v>
+        <v>1421</v>
       </c>
       <c r="N12" s="7">
-        <v>2052547</v>
+        <v>1532479</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3085,49 +2764,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>560</v>
+        <v>752</v>
       </c>
       <c r="D13" s="7">
-        <v>608742</v>
+        <v>753456</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="H13" s="7">
-        <v>643</v>
+        <v>787</v>
       </c>
       <c r="I13" s="7">
-        <v>690033</v>
+        <v>864884</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="M13" s="7">
-        <v>1203</v>
+        <v>1539</v>
       </c>
       <c r="N13" s="7">
-        <v>1298775</v>
+        <v>1618340</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>186</v>
+        <v>122</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3136,49 +2815,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>127</v>
+        <v>175</v>
       </c>
       <c r="D14" s="7">
-        <v>140640</v>
+        <v>177896</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="H14" s="7">
-        <v>91</v>
+        <v>168</v>
       </c>
       <c r="I14" s="7">
-        <v>93064</v>
+        <v>174780</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>157</v>
+        <v>87</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="M14" s="7">
-        <v>218</v>
+        <v>343</v>
       </c>
       <c r="N14" s="7">
-        <v>233704</v>
+        <v>352676</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>194</v>
+        <v>131</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3187,10 +2866,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>687</v>
+        <v>927</v>
       </c>
       <c r="D15" s="7">
-        <v>749382</v>
+        <v>931352</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3202,10 +2881,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>734</v>
+        <v>955</v>
       </c>
       <c r="I15" s="7">
-        <v>783097</v>
+        <v>1039664</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3217,10 +2896,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1421</v>
+        <v>1882</v>
       </c>
       <c r="N15" s="7">
-        <v>1532479</v>
+        <v>1971016</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3234,55 +2913,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>752</v>
+        <v>2632</v>
       </c>
       <c r="D16" s="7">
-        <v>753456</v>
+        <v>2754546</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="H16" s="7">
-        <v>787</v>
+        <v>2888</v>
       </c>
       <c r="I16" s="7">
-        <v>864884</v>
+        <v>3088706</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>96</v>
+        <v>175</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="M16" s="7">
-        <v>1539</v>
+        <v>5520</v>
       </c>
       <c r="N16" s="7">
-        <v>1618340</v>
+        <v>5843250</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3291,49 +2970,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>175</v>
+        <v>574</v>
       </c>
       <c r="D17" s="7">
-        <v>177896</v>
+        <v>609647</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="H17" s="7">
-        <v>168</v>
+        <v>439</v>
       </c>
       <c r="I17" s="7">
-        <v>174780</v>
+        <v>444990</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>106</v>
+        <v>184</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="M17" s="7">
-        <v>343</v>
+        <v>1013</v>
       </c>
       <c r="N17" s="7">
-        <v>352676</v>
+        <v>1054638</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3342,10 +3021,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>927</v>
+        <v>3206</v>
       </c>
       <c r="D18" s="7">
-        <v>931352</v>
+        <v>3364193</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3357,10 +3036,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>955</v>
+        <v>3327</v>
       </c>
       <c r="I18" s="7">
-        <v>1039664</v>
+        <v>3533696</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3372,10 +3051,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1882</v>
+        <v>6533</v>
       </c>
       <c r="N18" s="7">
-        <v>1971016</v>
+        <v>6897888</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3388,171 +3067,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>2632</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2754545</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2888</v>
-      </c>
-      <c r="I19" s="7">
-        <v>3088706</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="M19" s="7">
-        <v>5520</v>
-      </c>
-      <c r="N19" s="7">
-        <v>5843251</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>574</v>
-      </c>
-      <c r="D20" s="7">
-        <v>609647</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="H20" s="7">
-        <v>439</v>
-      </c>
-      <c r="I20" s="7">
-        <v>444990</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1013</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1054638</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3206</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3364192</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3327</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3533696</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6533</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6897889</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3565,8 +3088,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52AA7DCC-B68B-4B76-9162-EA87ACE798E3}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE43DA2-2BD0-491E-970D-DA382650A895}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3582,7 +3105,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3683,49 +3206,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>112</v>
+        <v>669</v>
       </c>
       <c r="D4" s="7">
-        <v>92947</v>
+        <v>554465</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>229</v>
+        <v>192</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>230</v>
+        <v>193</v>
       </c>
       <c r="H4" s="7">
-        <v>227</v>
+        <v>1163</v>
       </c>
       <c r="I4" s="7">
-        <v>119327</v>
+        <v>624179</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>231</v>
+        <v>194</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>233</v>
+        <v>196</v>
       </c>
       <c r="M4" s="7">
-        <v>339</v>
+        <v>1832</v>
       </c>
       <c r="N4" s="7">
-        <v>212274</v>
+        <v>1178643</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>235</v>
+        <v>198</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>236</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3734,49 +3257,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="D5" s="7">
-        <v>9035</v>
+        <v>80976</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>238</v>
+        <v>201</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>239</v>
+        <v>202</v>
       </c>
       <c r="H5" s="7">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="I5" s="7">
-        <v>10827</v>
+        <v>49184</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>240</v>
+        <v>203</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>242</v>
+        <v>205</v>
       </c>
       <c r="M5" s="7">
-        <v>21</v>
+        <v>133</v>
       </c>
       <c r="N5" s="7">
-        <v>19862</v>
+        <v>130161</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>243</v>
+        <v>206</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>244</v>
+        <v>207</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>245</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3785,10 +3308,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3800,10 +3323,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>242</v>
+        <v>1235</v>
       </c>
       <c r="I6" s="7">
-        <v>130154</v>
+        <v>673363</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3815,10 +3338,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>360</v>
+        <v>1965</v>
       </c>
       <c r="N6" s="7">
-        <v>232136</v>
+        <v>1308804</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3838,49 +3361,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>557</v>
+        <v>794</v>
       </c>
       <c r="D7" s="7">
-        <v>473888</v>
+        <v>738415</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>246</v>
+        <v>209</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>247</v>
+        <v>210</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="H7" s="7">
-        <v>936</v>
+        <v>1337</v>
       </c>
       <c r="I7" s="7">
-        <v>545913</v>
+        <v>811868</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>249</v>
+        <v>146</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>251</v>
+        <v>213</v>
       </c>
       <c r="M7" s="7">
-        <v>1493</v>
+        <v>2131</v>
       </c>
       <c r="N7" s="7">
-        <v>1019801</v>
+        <v>1550283</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>253</v>
+        <v>215</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>254</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3889,49 +3412,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>55</v>
+        <v>169</v>
       </c>
       <c r="D8" s="7">
-        <v>75935</v>
+        <v>453673</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>255</v>
+        <v>217</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>256</v>
+        <v>218</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>257</v>
+        <v>219</v>
       </c>
       <c r="H8" s="7">
-        <v>57</v>
+        <v>178</v>
       </c>
       <c r="I8" s="7">
-        <v>45133</v>
+        <v>146077</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>258</v>
+        <v>155</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="M8" s="7">
-        <v>112</v>
+        <v>347</v>
       </c>
       <c r="N8" s="7">
-        <v>121068</v>
+        <v>599749</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>261</v>
+        <v>222</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>263</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3940,10 +3463,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>963</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>1192088</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3955,10 +3478,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>993</v>
+        <v>1515</v>
       </c>
       <c r="I9" s="7">
-        <v>591046</v>
+        <v>957945</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3970,10 +3493,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1605</v>
+        <v>2478</v>
       </c>
       <c r="N9" s="7">
-        <v>1140869</v>
+        <v>2150032</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3993,49 +3516,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>794</v>
+        <v>567</v>
       </c>
       <c r="D10" s="7">
-        <v>763428</v>
+        <v>561307</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>264</v>
+        <v>225</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>266</v>
+        <v>112</v>
       </c>
       <c r="H10" s="7">
-        <v>1337</v>
+        <v>942</v>
       </c>
       <c r="I10" s="7">
-        <v>888056</v>
+        <v>836650</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>267</v>
+        <v>227</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>268</v>
+        <v>228</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>269</v>
+        <v>229</v>
       </c>
       <c r="M10" s="7">
-        <v>2131</v>
+        <v>1509</v>
       </c>
       <c r="N10" s="7">
-        <v>1651485</v>
+        <v>1397957</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>266</v>
+        <v>162</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>271</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4044,49 +3567,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>169</v>
+        <v>108</v>
       </c>
       <c r="D11" s="7">
-        <v>275004</v>
+        <v>142377</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>273</v>
+        <v>121</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>274</v>
+        <v>233</v>
       </c>
       <c r="H11" s="7">
-        <v>178</v>
+        <v>104</v>
       </c>
       <c r="I11" s="7">
-        <v>171259</v>
+        <v>96150</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>275</v>
+        <v>234</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>276</v>
+        <v>235</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="M11" s="7">
-        <v>347</v>
+        <v>212</v>
       </c>
       <c r="N11" s="7">
-        <v>446263</v>
+        <v>238527</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>273</v>
+        <v>168</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>278</v>
+        <v>237</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>279</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4095,10 +3618,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>963</v>
+        <v>675</v>
       </c>
       <c r="D12" s="7">
-        <v>1038432</v>
+        <v>703684</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4110,10 +3633,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1515</v>
+        <v>1046</v>
       </c>
       <c r="I12" s="7">
-        <v>1059315</v>
+        <v>932800</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4125,10 +3648,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2478</v>
+        <v>1721</v>
       </c>
       <c r="N12" s="7">
-        <v>2097748</v>
+        <v>1636484</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4148,49 +3671,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>567</v>
+        <v>857</v>
       </c>
       <c r="D13" s="7">
-        <v>581724</v>
+        <v>747059</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>280</v>
+        <v>239</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>281</v>
+        <v>240</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>282</v>
+        <v>241</v>
       </c>
       <c r="H13" s="7">
-        <v>942</v>
+        <v>1410</v>
       </c>
       <c r="I13" s="7">
-        <v>765382</v>
+        <v>895106</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>283</v>
+        <v>242</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>285</v>
+        <v>244</v>
       </c>
       <c r="M13" s="7">
-        <v>1509</v>
+        <v>2267</v>
       </c>
       <c r="N13" s="7">
-        <v>1347107</v>
+        <v>1642165</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>287</v>
+        <v>246</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>288</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4199,49 +3722,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="D14" s="7">
-        <v>145977</v>
+        <v>179772</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>289</v>
+        <v>248</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>290</v>
+        <v>249</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>291</v>
+        <v>250</v>
       </c>
       <c r="H14" s="7">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="I14" s="7">
-        <v>108364</v>
+        <v>199114</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>292</v>
+        <v>251</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>293</v>
+        <v>252</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>294</v>
+        <v>253</v>
       </c>
       <c r="M14" s="7">
-        <v>212</v>
+        <v>299</v>
       </c>
       <c r="N14" s="7">
-        <v>254340</v>
+        <v>378886</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>295</v>
+        <v>254</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>296</v>
+        <v>255</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>297</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4250,10 +3773,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>675</v>
+        <v>1006</v>
       </c>
       <c r="D15" s="7">
-        <v>727701</v>
+        <v>926831</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4265,10 +3788,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1046</v>
+        <v>1560</v>
       </c>
       <c r="I15" s="7">
-        <v>873746</v>
+        <v>1094220</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4280,10 +3803,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1721</v>
+        <v>2566</v>
       </c>
       <c r="N15" s="7">
-        <v>1601447</v>
+        <v>2021051</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4297,55 +3820,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>857</v>
+        <v>2887</v>
       </c>
       <c r="D16" s="7">
-        <v>773424</v>
+        <v>2601246</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>33</v>
+        <v>257</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>298</v>
+        <v>258</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>299</v>
+        <v>259</v>
       </c>
       <c r="H16" s="7">
-        <v>1410</v>
+        <v>4852</v>
       </c>
       <c r="I16" s="7">
-        <v>979547</v>
+        <v>3167804</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>301</v>
+        <v>261</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>302</v>
+        <v>262</v>
       </c>
       <c r="M16" s="7">
-        <v>2267</v>
+        <v>7739</v>
       </c>
       <c r="N16" s="7">
-        <v>1752971</v>
+        <v>5769048</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4354,49 +3877,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>149</v>
+        <v>487</v>
       </c>
       <c r="D17" s="7">
-        <v>191979</v>
+        <v>856798</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>43</v>
+        <v>266</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>307</v>
+        <v>268</v>
       </c>
       <c r="H17" s="7">
-        <v>150</v>
+        <v>504</v>
       </c>
       <c r="I17" s="7">
-        <v>170076</v>
+        <v>490524</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>308</v>
+        <v>269</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>310</v>
+        <v>271</v>
       </c>
       <c r="M17" s="7">
-        <v>299</v>
+        <v>991</v>
       </c>
       <c r="N17" s="7">
-        <v>362055</v>
+        <v>1347323</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>312</v>
+        <v>273</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>313</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4405,10 +3928,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1006</v>
+        <v>3374</v>
       </c>
       <c r="D18" s="7">
-        <v>965403</v>
+        <v>3458044</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4420,10 +3943,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1560</v>
+        <v>5356</v>
       </c>
       <c r="I18" s="7">
-        <v>1149623</v>
+        <v>3658328</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4435,10 +3958,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2566</v>
+        <v>8730</v>
       </c>
       <c r="N18" s="7">
-        <v>2115026</v>
+        <v>7116371</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4451,171 +3974,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>2887</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2685412</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="H19" s="7">
-        <v>4852</v>
-      </c>
-      <c r="I19" s="7">
-        <v>3298225</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="M19" s="7">
-        <v>7739</v>
-      </c>
-      <c r="N19" s="7">
-        <v>5983638</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>487</v>
-      </c>
-      <c r="D20" s="7">
-        <v>697930</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="H20" s="7">
-        <v>504</v>
-      </c>
-      <c r="I20" s="7">
-        <v>505659</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="M20" s="7">
-        <v>991</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1203588</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3374</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3383342</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5356</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3803884</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8730</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7187226</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
